--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1502,28 +1502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.5222054063928</v>
+        <v>231.2201786395585</v>
       </c>
       <c r="AB2" t="n">
-        <v>236.0524925794545</v>
+        <v>316.3656491288477</v>
       </c>
       <c r="AC2" t="n">
-        <v>213.5239739894937</v>
+        <v>286.1721555980615</v>
       </c>
       <c r="AD2" t="n">
-        <v>172522.2054063928</v>
+        <v>231220.1786395585</v>
       </c>
       <c r="AE2" t="n">
-        <v>236052.4925794545</v>
+        <v>316365.6491288477</v>
       </c>
       <c r="AF2" t="n">
         <v>1.189797319829542e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.19444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>213523.9739894937</v>
+        <v>286172.1555980615</v>
       </c>
     </row>
     <row r="3">
@@ -1608,28 +1608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>159.8179241727768</v>
+        <v>228.3034076464335</v>
       </c>
       <c r="AB3" t="n">
-        <v>218.669934522298</v>
+        <v>312.3747943772016</v>
       </c>
       <c r="AC3" t="n">
-        <v>197.8003828767332</v>
+        <v>282.5621824227114</v>
       </c>
       <c r="AD3" t="n">
-        <v>159817.9241727768</v>
+        <v>228303.4076464335</v>
       </c>
       <c r="AE3" t="n">
-        <v>218669.934522298</v>
+        <v>312374.7943772016</v>
       </c>
       <c r="AF3" t="n">
         <v>1.242195647184781e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.63888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>197800.3828767332</v>
+        <v>282562.1824227115</v>
       </c>
     </row>
   </sheetData>
@@ -1905,28 +1905,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>156.9715399544015</v>
+        <v>224.7012185863766</v>
       </c>
       <c r="AB2" t="n">
-        <v>214.7753860611097</v>
+        <v>307.4461203878688</v>
       </c>
       <c r="AC2" t="n">
-        <v>194.2775246546464</v>
+        <v>278.1038941614815</v>
       </c>
       <c r="AD2" t="n">
-        <v>156971.5399544016</v>
+        <v>224701.2185863766</v>
       </c>
       <c r="AE2" t="n">
-        <v>214775.3860611097</v>
+        <v>307446.1203878688</v>
       </c>
       <c r="AF2" t="n">
         <v>1.336874612375989e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.84722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>194277.5246546464</v>
+        <v>278103.8941614815</v>
       </c>
     </row>
   </sheetData>
@@ -2202,28 +2202,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.3348494876831</v>
+        <v>258.0772181790122</v>
       </c>
       <c r="AB2" t="n">
-        <v>250.8468292316589</v>
+        <v>353.112635475839</v>
       </c>
       <c r="AC2" t="n">
-        <v>226.9063599155984</v>
+        <v>319.4120611427207</v>
       </c>
       <c r="AD2" t="n">
-        <v>183334.8494876831</v>
+        <v>258077.2181790122</v>
       </c>
       <c r="AE2" t="n">
-        <v>250846.829231659</v>
+        <v>353112.635475839</v>
       </c>
       <c r="AF2" t="n">
         <v>1.572479210584411e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.24305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>226906.3599155984</v>
+        <v>319412.0611427207</v>
       </c>
     </row>
   </sheetData>
@@ -2499,28 +2499,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>164.017945809875</v>
+        <v>239.8101760001435</v>
       </c>
       <c r="AB2" t="n">
-        <v>224.4165894180503</v>
+        <v>328.1188624815318</v>
       </c>
       <c r="AC2" t="n">
-        <v>202.9985850947175</v>
+        <v>296.8036587641078</v>
       </c>
       <c r="AD2" t="n">
-        <v>164017.945809875</v>
+        <v>239810.1760001435</v>
       </c>
       <c r="AE2" t="n">
-        <v>224416.5894180503</v>
+        <v>328118.8624815319</v>
       </c>
       <c r="AF2" t="n">
         <v>1.49723033230751e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.86574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>202998.5850947175</v>
+        <v>296803.6587641078</v>
       </c>
     </row>
   </sheetData>
@@ -2796,28 +2796,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>204.500055702319</v>
+        <v>287.6597591964309</v>
       </c>
       <c r="AB2" t="n">
-        <v>279.8059981175072</v>
+        <v>393.5887731854721</v>
       </c>
       <c r="AC2" t="n">
-        <v>253.1017063674393</v>
+        <v>356.0252130779626</v>
       </c>
       <c r="AD2" t="n">
-        <v>204500.055702319</v>
+        <v>287659.7591964309</v>
       </c>
       <c r="AE2" t="n">
-        <v>279805.9981175072</v>
+        <v>393588.7731854721</v>
       </c>
       <c r="AF2" t="n">
         <v>1.59625377383518e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.19907407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>253101.7063674393</v>
+        <v>356025.2130779626</v>
       </c>
     </row>
   </sheetData>
@@ -3093,28 +3093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.2522580484218</v>
+        <v>226.1805935214274</v>
       </c>
       <c r="AB2" t="n">
-        <v>216.527721058642</v>
+        <v>309.4702664394202</v>
       </c>
       <c r="AC2" t="n">
-        <v>195.8626192594324</v>
+        <v>279.9348585547804</v>
       </c>
       <c r="AD2" t="n">
-        <v>158252.2580484218</v>
+        <v>226180.5935214274</v>
       </c>
       <c r="AE2" t="n">
-        <v>216527.721058642</v>
+        <v>309470.2664394202</v>
       </c>
       <c r="AF2" t="n">
         <v>1.300930315367474e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.88194444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>195862.6192594324</v>
+        <v>279934.8585547804</v>
       </c>
     </row>
     <row r="3">
@@ -3199,28 +3199,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>158.6636550911549</v>
+        <v>226.5919905641605</v>
       </c>
       <c r="AB3" t="n">
-        <v>217.0906126420657</v>
+        <v>310.0331580228439</v>
       </c>
       <c r="AC3" t="n">
-        <v>196.3717892601576</v>
+        <v>280.4440285555056</v>
       </c>
       <c r="AD3" t="n">
-        <v>158663.6550911549</v>
+        <v>226591.9905641605</v>
       </c>
       <c r="AE3" t="n">
-        <v>217090.6126420657</v>
+        <v>310033.1580228439</v>
       </c>
       <c r="AF3" t="n">
         <v>1.296572017094569e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.92824074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>196371.7892601576</v>
+        <v>280444.0285555056</v>
       </c>
     </row>
   </sheetData>
@@ -3496,28 +3496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>216.7593080394332</v>
+        <v>308.6203262519401</v>
       </c>
       <c r="AB2" t="n">
-        <v>296.579648005181</v>
+        <v>422.2679457457753</v>
       </c>
       <c r="AC2" t="n">
-        <v>268.2745026518043</v>
+        <v>381.9672856605817</v>
       </c>
       <c r="AD2" t="n">
-        <v>216759.3080394332</v>
+        <v>308620.32625194</v>
       </c>
       <c r="AE2" t="n">
-        <v>296579.6480051809</v>
+        <v>422267.9457457752</v>
       </c>
       <c r="AF2" t="n">
         <v>1.584428129529789e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.95833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>268274.5026518042</v>
+        <v>381967.2856605817</v>
       </c>
     </row>
   </sheetData>
@@ -3793,28 +3793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>165.0122899226874</v>
+        <v>222.5097982353214</v>
       </c>
       <c r="AB2" t="n">
-        <v>225.7770949005658</v>
+        <v>304.4477223849138</v>
       </c>
       <c r="AC2" t="n">
-        <v>204.2292458434636</v>
+        <v>275.3916590556497</v>
       </c>
       <c r="AD2" t="n">
-        <v>165012.2899226875</v>
+        <v>222509.7982353214</v>
       </c>
       <c r="AE2" t="n">
-        <v>225777.0949005658</v>
+        <v>304447.7223849138</v>
       </c>
       <c r="AF2" t="n">
         <v>1.416268504215914e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.18287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>204229.2458434636</v>
+        <v>275391.6590556497</v>
       </c>
     </row>
   </sheetData>
@@ -4090,28 +4090,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>156.4960412687622</v>
+        <v>224.0195088839901</v>
       </c>
       <c r="AB2" t="n">
-        <v>214.1247877818968</v>
+        <v>306.5133750981544</v>
       </c>
       <c r="AC2" t="n">
-        <v>193.6890185620809</v>
+        <v>277.260168773101</v>
       </c>
       <c r="AD2" t="n">
-        <v>156496.0412687621</v>
+        <v>224019.5088839901</v>
       </c>
       <c r="AE2" t="n">
-        <v>214124.7877818968</v>
+        <v>306513.3750981544</v>
       </c>
       <c r="AF2" t="n">
         <v>1.359981240677042e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.96296296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>193689.0185620809</v>
+        <v>277260.168773101</v>
       </c>
     </row>
   </sheetData>
@@ -4387,28 +4387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>170.6303023464447</v>
+        <v>229.1741578181474</v>
       </c>
       <c r="AB2" t="n">
-        <v>233.4639073479624</v>
+        <v>313.5661931769264</v>
       </c>
       <c r="AC2" t="n">
-        <v>211.1824396993922</v>
+        <v>283.6398757931296</v>
       </c>
       <c r="AD2" t="n">
-        <v>170630.3023464447</v>
+        <v>229174.1578181474</v>
       </c>
       <c r="AE2" t="n">
-        <v>233463.9073479624</v>
+        <v>313566.1931769264</v>
       </c>
       <c r="AF2" t="n">
         <v>1.231809785445392e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.00925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>211182.4396993922</v>
+        <v>283639.8757931296</v>
       </c>
     </row>
     <row r="3">
@@ -4493,28 +4493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>159.0458140871013</v>
+        <v>227.3514935057179</v>
       </c>
       <c r="AB3" t="n">
-        <v>217.6134994399844</v>
+        <v>311.0723434543873</v>
       </c>
       <c r="AC3" t="n">
-        <v>196.8447724759594</v>
+        <v>281.3840355879687</v>
       </c>
       <c r="AD3" t="n">
-        <v>159045.8140871013</v>
+        <v>227351.493505718</v>
       </c>
       <c r="AE3" t="n">
-        <v>217613.4994399844</v>
+        <v>311072.3434543873</v>
       </c>
       <c r="AF3" t="n">
         <v>1.264149689676828e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.67361111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>196844.7724759594</v>
+        <v>281384.0355879687</v>
       </c>
     </row>
   </sheetData>
@@ -4790,28 +4790,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>164.2500702291006</v>
+        <v>230.8882641535421</v>
       </c>
       <c r="AB2" t="n">
-        <v>224.7341922890412</v>
+        <v>315.9115090860467</v>
       </c>
       <c r="AC2" t="n">
-        <v>203.2858763934596</v>
+        <v>285.7613580435557</v>
       </c>
       <c r="AD2" t="n">
-        <v>164250.0702291006</v>
+        <v>230888.2641535421</v>
       </c>
       <c r="AE2" t="n">
-        <v>224734.1922890412</v>
+        <v>315911.5090860467</v>
       </c>
       <c r="AF2" t="n">
         <v>1.470878166214325e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.57638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>203285.8763934596</v>
+        <v>285761.3580435558</v>
       </c>
     </row>
   </sheetData>
@@ -5087,28 +5087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.420753522683</v>
+        <v>248.5940550530757</v>
       </c>
       <c r="AB2" t="n">
-        <v>237.2819257533073</v>
+        <v>340.1373533191418</v>
       </c>
       <c r="AC2" t="n">
-        <v>214.6360717867547</v>
+        <v>307.6751217042379</v>
       </c>
       <c r="AD2" t="n">
-        <v>173420.753522683</v>
+        <v>248594.0550530757</v>
       </c>
       <c r="AE2" t="n">
-        <v>237281.9257533073</v>
+        <v>340137.3533191418</v>
       </c>
       <c r="AF2" t="n">
         <v>1.5517019804589e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.6412037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>214636.0717867546</v>
+        <v>307675.1217042379</v>
       </c>
     </row>
   </sheetData>
@@ -8013,28 +8013,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>193.4146444949449</v>
+        <v>267.7950640284612</v>
       </c>
       <c r="AB2" t="n">
-        <v>264.6384494497588</v>
+        <v>366.4090208881563</v>
       </c>
       <c r="AC2" t="n">
-        <v>239.3817272567477</v>
+        <v>331.4394581928806</v>
       </c>
       <c r="AD2" t="n">
-        <v>193414.6444949449</v>
+        <v>267795.0640284612</v>
       </c>
       <c r="AE2" t="n">
-        <v>264638.4494497587</v>
+        <v>366409.0208881563</v>
       </c>
       <c r="AF2" t="n">
         <v>1.592255227254516e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.01851851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>239381.7272567477</v>
+        <v>331439.4581928806</v>
       </c>
     </row>
   </sheetData>
@@ -8310,28 +8310,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>259.7700256592388</v>
+        <v>359.9975758256128</v>
       </c>
       <c r="AB2" t="n">
-        <v>355.4288093516803</v>
+        <v>492.5645652167565</v>
       </c>
       <c r="AC2" t="n">
-        <v>321.5071826346221</v>
+        <v>445.5548944311777</v>
       </c>
       <c r="AD2" t="n">
-        <v>259770.0256592388</v>
+        <v>359997.5758256128</v>
       </c>
       <c r="AE2" t="n">
-        <v>355428.8093516803</v>
+        <v>492564.5652167565</v>
       </c>
       <c r="AF2" t="n">
         <v>1.526894753225691e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.09490740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>321507.1826346221</v>
+        <v>445554.8944311777</v>
       </c>
     </row>
   </sheetData>
@@ -8607,28 +8607,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>165.7052399537013</v>
+        <v>223.39469671808</v>
       </c>
       <c r="AB2" t="n">
-        <v>226.7252197037962</v>
+        <v>305.6584795279894</v>
       </c>
       <c r="AC2" t="n">
-        <v>205.0868829461756</v>
+        <v>276.4868632362989</v>
       </c>
       <c r="AD2" t="n">
-        <v>165705.2399537013</v>
+        <v>223394.69671808</v>
       </c>
       <c r="AE2" t="n">
-        <v>226725.2197037962</v>
+        <v>305658.4795279894</v>
       </c>
       <c r="AF2" t="n">
         <v>1.386162095579725e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.0787037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>205086.8829461756</v>
+        <v>276486.8632362988</v>
       </c>
     </row>
   </sheetData>
@@ -8904,28 +8904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.6457695559458</v>
+        <v>226.7659056878836</v>
       </c>
       <c r="AB2" t="n">
-        <v>217.0661408637386</v>
+        <v>310.2711163677154</v>
       </c>
       <c r="AC2" t="n">
-        <v>196.3496530340077</v>
+        <v>280.6592764899193</v>
       </c>
       <c r="AD2" t="n">
-        <v>158645.7695559458</v>
+        <v>226765.9056878836</v>
       </c>
       <c r="AE2" t="n">
-        <v>217066.1408637386</v>
+        <v>310271.1163677154</v>
       </c>
       <c r="AF2" t="n">
         <v>1.28039155643387e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.78935185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>196349.6530340077</v>
+        <v>280659.2764899193</v>
       </c>
     </row>
     <row r="3">
@@ -9010,28 +9010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>157.0261163100401</v>
+        <v>215.3767692600944</v>
       </c>
       <c r="AB3" t="n">
-        <v>214.8500598386333</v>
+        <v>294.6879974539843</v>
       </c>
       <c r="AC3" t="n">
-        <v>194.3450716716485</v>
+        <v>266.563388574265</v>
       </c>
       <c r="AD3" t="n">
-        <v>157026.1163100401</v>
+        <v>215376.7692600944</v>
       </c>
       <c r="AE3" t="n">
-        <v>214850.0598386333</v>
+        <v>294687.9974539843</v>
       </c>
       <c r="AF3" t="n">
         <v>1.311506043317627e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.48842592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>194345.0716716485</v>
+        <v>266563.3885742651</v>
       </c>
     </row>
   </sheetData>
@@ -9307,28 +9307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>328.8275163661486</v>
+        <v>464.2383913134251</v>
       </c>
       <c r="AB2" t="n">
-        <v>449.9163147383459</v>
+        <v>635.191447747395</v>
       </c>
       <c r="AC2" t="n">
-        <v>406.9769331212311</v>
+        <v>574.5696674711789</v>
       </c>
       <c r="AD2" t="n">
-        <v>328827.5163661487</v>
+        <v>464238.3913134251</v>
       </c>
       <c r="AE2" t="n">
-        <v>449916.3147383459</v>
+        <v>635191.447747395</v>
       </c>
       <c r="AF2" t="n">
         <v>1.372261215477599e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.95833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>406976.9331212311</v>
+        <v>574569.6674711789</v>
       </c>
     </row>
   </sheetData>
@@ -9604,28 +9604,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.716796653939</v>
+        <v>239.7512318698354</v>
       </c>
       <c r="AB2" t="n">
-        <v>237.6869850259927</v>
+        <v>328.0382125220129</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.0024727709594</v>
+        <v>296.7307059235324</v>
       </c>
       <c r="AD2" t="n">
-        <v>173716.796653939</v>
+        <v>239751.2318698353</v>
       </c>
       <c r="AE2" t="n">
-        <v>237686.9850259927</v>
+        <v>328038.2125220129</v>
       </c>
       <c r="AF2" t="n">
         <v>1.519078550753638e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.25925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>215002.4727709594</v>
+        <v>296730.7059235324</v>
       </c>
     </row>
   </sheetData>
@@ -9901,28 +9901,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>164.6858970103891</v>
+        <v>231.4690474277583</v>
       </c>
       <c r="AB2" t="n">
-        <v>225.3305097185204</v>
+        <v>316.7061623841785</v>
       </c>
       <c r="AC2" t="n">
-        <v>203.8252821244062</v>
+        <v>286.4801707462171</v>
       </c>
       <c r="AD2" t="n">
-        <v>164685.8970103891</v>
+        <v>231469.0474277583</v>
       </c>
       <c r="AE2" t="n">
-        <v>225330.5097185204</v>
+        <v>316706.1623841785</v>
       </c>
       <c r="AF2" t="n">
         <v>1.440445480992096e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.3912037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>203825.2821244063</v>
+        <v>286480.1707462171</v>
       </c>
     </row>
   </sheetData>
